--- a/va_facility_data_2025-02-20/Rockford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rockford%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rockford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rockford%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R54b9e29c53c249bfaa7a2833ed8532f0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R97981187549c4cb1abef6c41ca5bb017"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3f76e61386fc46c38d8850f8d1cbc8e0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R95664882139746fd954ed99f2b1969ff"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6233f1cd1ba04ddba58338a00f19adb9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0a741ec075674b71a48098db0633e2f7"/>
   </x:sheets>
 </x:workbook>
 </file>
